--- a/config/数值设计.xlsx
+++ b/config/数值设计.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="all" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="defendset" sheetId="3" r:id="rId3"/>
+    <sheet name="all02" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>inflexable_plus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +140,106 @@
   </si>
   <si>
     <t>b(level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staticlife-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staticattack-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staticdefend-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staticinflexable-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statickeen-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staticpower-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staticspeed-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staticritical-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staticparry-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staticrecoverspeed-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upinflexbale=&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upkeen=&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uppower=&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recoverspeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inflexable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -188,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -201,6 +302,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -251,7 +358,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$1</c:f>
+              <c:f>defendset!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -265,7 +372,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$A$2:$A$26</c:f>
+              <c:f>defendset!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -354,7 +461,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$1</c:f>
+              <c:f>defendset!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -368,7 +475,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$2:$B$26</c:f>
+              <c:f>defendset!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -457,7 +564,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$C$1</c:f>
+              <c:f>defendset!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -471,84 +578,84 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$2:$C$26</c:f>
+              <c:f>defendset!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.959484454640389</c:v>
+                  <c:v>54.959484454640389</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.860596883514532</c:v>
+                  <c:v>57.860596883514532</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.918968909280778</c:v>
+                  <c:v>59.918968909280778</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.515566291386648</c:v>
+                  <c:v>61.515566291386648</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.820081338154921</c:v>
+                  <c:v>62.820081338154921</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.923033094602872</c:v>
+                  <c:v>63.923033094602872</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.878453363921167</c:v>
+                  <c:v>64.878453363921167</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.721193767029064</c:v>
+                  <c:v>65.721193767029064</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.475050746027044</c:v>
+                  <c:v>66.475050746027051</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.156997334523126</c:v>
+                  <c:v>67.156997334523126</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47.77956579279531</c:v>
+                  <c:v>67.77956579279531</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48.352273257454613</c:v>
+                  <c:v>68.352273257454613</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48.882517549243261</c:v>
+                  <c:v>68.882517549243261</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49.376163174901187</c:v>
+                  <c:v>69.376163174901194</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49.837937818561564</c:v>
+                  <c:v>69.837937818561556</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.271708420101305</c:v>
+                  <c:v>70.271708420101305</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50.680678221669453</c:v>
+                  <c:v>70.680678221669453</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>51.067530467362673</c:v>
+                  <c:v>71.067530467362673</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51.434535200667433</c:v>
+                  <c:v>71.434535200667426</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51.783629978117403</c:v>
+                  <c:v>71.783629978117403</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>52.116481789163515</c:v>
+                  <c:v>72.116481789163515</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52.434535200667433</c:v>
+                  <c:v>72.434535200667426</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>52.739050247435706</c:v>
+                  <c:v>72.739050247435699</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>53.031132582773303</c:v>
+                  <c:v>73.031132582773296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -565,11 +672,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161038336"/>
-        <c:axId val="161039872"/>
+        <c:axId val="134278528"/>
+        <c:axId val="135472256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161038336"/>
+        <c:axId val="134278528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -578,7 +685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161039872"/>
+        <c:crossAx val="135472256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -586,7 +693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161039872"/>
+        <c:axId val="135472256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -597,7 +704,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161038336"/>
+        <c:crossAx val="134278528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -940,7 +1047,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1084,27 +1191,27 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I6" si="1">$B$1*B4</f>
+        <f t="shared" ref="I4:I5" si="1">$B$1*B4</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J6" si="2">$B$1*C4</f>
+        <f t="shared" ref="J4:J5" si="2">$B$1*C4</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K6" si="3">$B$1*D4</f>
+        <f t="shared" ref="K4:K5" si="3">$B$1*D4</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L6" si="4">$B$1*E4</f>
+        <f t="shared" ref="L4:L5" si="4">$B$1*E4</f>
         <v>4.5</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M6" si="5">$B$1*F4</f>
+        <f t="shared" ref="M4:M5" si="5">$B$1*F4</f>
         <v>4.5</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N6" si="6">$B$1*G4</f>
+        <f t="shared" ref="N4:N5" si="6">$B$1*G4</f>
         <v>3</v>
       </c>
     </row>
@@ -1728,8 +1835,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1765,7 +1872,7 @@
       </c>
       <c r="C2">
         <f>LOG($F2,$D2)+$G$2</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>1.1499999999999999</v>
@@ -1777,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1791,7 +1898,7 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C26" si="2">LOG($F3,$D3)+$G$2</f>
-        <v>34.959484454640389</v>
+        <v>54.959484454640389</v>
       </c>
       <c r="D3">
         <v>1.1499999999999999</v>
@@ -1817,7 +1924,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="2"/>
-        <v>37.860596883514532</v>
+        <v>57.860596883514532</v>
       </c>
       <c r="D4">
         <v>1.1499999999999999</v>
@@ -1843,7 +1950,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="2"/>
-        <v>39.918968909280778</v>
+        <v>59.918968909280778</v>
       </c>
       <c r="D5">
         <v>1.1499999999999999</v>
@@ -1866,7 +1973,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
-        <v>41.515566291386648</v>
+        <v>61.515566291386648</v>
       </c>
       <c r="D6">
         <v>1.1499999999999999</v>
@@ -1889,7 +1996,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
-        <v>42.820081338154921</v>
+        <v>62.820081338154921</v>
       </c>
       <c r="D7">
         <v>1.1499999999999999</v>
@@ -1912,7 +2019,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
-        <v>43.923033094602872</v>
+        <v>63.923033094602872</v>
       </c>
       <c r="D8">
         <v>1.1499999999999999</v>
@@ -1935,7 +2042,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
-        <v>44.878453363921167</v>
+        <v>64.878453363921167</v>
       </c>
       <c r="D9">
         <v>1.1499999999999999</v>
@@ -1958,7 +2065,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
-        <v>45.721193767029064</v>
+        <v>65.721193767029064</v>
       </c>
       <c r="D10">
         <v>1.1499999999999999</v>
@@ -1981,7 +2088,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
-        <v>46.475050746027044</v>
+        <v>66.475050746027051</v>
       </c>
       <c r="D11">
         <v>1.1499999999999999</v>
@@ -2004,7 +2111,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
-        <v>47.156997334523126</v>
+        <v>67.156997334523126</v>
       </c>
       <c r="D12">
         <v>1.1499999999999999</v>
@@ -2027,7 +2134,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
-        <v>47.77956579279531</v>
+        <v>67.77956579279531</v>
       </c>
       <c r="D13">
         <v>1.1499999999999999</v>
@@ -2050,7 +2157,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
-        <v>48.352273257454613</v>
+        <v>68.352273257454613</v>
       </c>
       <c r="D14">
         <v>1.1499999999999999</v>
@@ -2073,7 +2180,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
-        <v>48.882517549243261</v>
+        <v>68.882517549243261</v>
       </c>
       <c r="D15">
         <v>1.1499999999999999</v>
@@ -2096,7 +2203,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
-        <v>49.376163174901187</v>
+        <v>69.376163174901194</v>
       </c>
       <c r="D16">
         <v>1.1499999999999999</v>
@@ -2119,7 +2226,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="2"/>
-        <v>49.837937818561564</v>
+        <v>69.837937818561556</v>
       </c>
       <c r="D17">
         <v>1.1499999999999999</v>
@@ -2142,7 +2249,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>50.271708420101305</v>
+        <v>70.271708420101305</v>
       </c>
       <c r="D18">
         <v>1.1499999999999999</v>
@@ -2165,7 +2272,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>50.680678221669453</v>
+        <v>70.680678221669453</v>
       </c>
       <c r="D19">
         <v>1.1499999999999999</v>
@@ -2188,7 +2295,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>51.067530467362673</v>
+        <v>71.067530467362673</v>
       </c>
       <c r="D20">
         <v>1.1499999999999999</v>
@@ -2211,7 +2318,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
-        <v>51.434535200667433</v>
+        <v>71.434535200667426</v>
       </c>
       <c r="D21">
         <v>1.1499999999999999</v>
@@ -2234,7 +2341,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
-        <v>51.783629978117403</v>
+        <v>71.783629978117403</v>
       </c>
       <c r="D22">
         <v>1.1499999999999999</v>
@@ -2257,7 +2364,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="2"/>
-        <v>52.116481789163515</v>
+        <v>72.116481789163515</v>
       </c>
       <c r="D23">
         <v>1.1499999999999999</v>
@@ -2280,7 +2387,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
-        <v>52.434535200667433</v>
+        <v>72.434535200667426</v>
       </c>
       <c r="D24">
         <v>1.1499999999999999</v>
@@ -2303,7 +2410,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
-        <v>52.739050247435706</v>
+        <v>72.739050247435699</v>
       </c>
       <c r="D25">
         <v>1.1499999999999999</v>
@@ -2326,7 +2433,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
-        <v>53.031132582773303</v>
+        <v>73.031132582773296</v>
       </c>
       <c r="D26">
         <v>1.1499999999999999</v>
@@ -2343,4 +2450,194 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3">
+        <f>B3+F11*2+F13*1</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4">
+        <f>B5+F13*1.5</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5">
+        <f>B5+'all02'!F11*1.5</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>3.2</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11">
+        <f>B11+(F2-1)*B15</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12">
+        <f>B12+(F2-1)*B16</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13">
+        <f>B13+(F2-1)*B17</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>